--- a/data/input/employee_absence_data_12.xlsx
+++ b/data/input/employee_absence_data_12.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67074</v>
+        <v>94008</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuelly da Cunha</t>
+          <t>Theo da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>12032.44</v>
+        <v>6307.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69708</v>
+        <v>65136</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natália Lopes</t>
+          <t>Diego da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,56 +511,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>9746.450000000001</v>
+        <v>9617.549999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20648</v>
+        <v>73241</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carolina Barbosa</t>
+          <t>Vinicius da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>8022.56</v>
+        <v>6871.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13263</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicolas da Costa</t>
+          <t>Yuri Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,27 +569,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>8776.889999999999</v>
+        <v>9345.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58921</v>
+        <v>31552</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Julia Araújo</t>
+          <t>Danilo Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,27 +598,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45098</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>2558.88</v>
+        <v>6745.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12367</v>
+        <v>37982</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Isabelly Borges</t>
+          <t>Dom Sousa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>9635.77</v>
+        <v>7294.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45203</v>
+        <v>72509</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ester Sá</t>
+          <t>Thiago Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>12347.64</v>
+        <v>7795.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60310</v>
+        <v>94039</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Maria Porto</t>
+          <t>Ravi Lucca Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>11961.64</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52142</v>
+        <v>11728</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cauã Duarte</t>
+          <t>Dra. Sophia Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>3442.14</v>
+        <v>9250.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94082</v>
+        <v>49978</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Anthony Gabriel Moraes</t>
+          <t>Srta. Maria Sophia Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5320.54</v>
+        <v>8535.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_12.xlsx
+++ b/data/input/employee_absence_data_12.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94008</v>
+        <v>65077</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Theo da Cunha</t>
+          <t>João Guilherme Pimenta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,274 +482,274 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>6307.69</v>
+        <v>6138.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65136</v>
+        <v>25935</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diego da Mota</t>
+          <t>Luísa Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>9617.549999999999</v>
+        <v>9427.290000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73241</v>
+        <v>12387</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinicius da Cruz</t>
+          <t>Léo Câmara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45098</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>6871.61</v>
+        <v>4829.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1021</v>
+        <v>65992</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yuri Fogaça</t>
+          <t>Helena Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>9345.35</v>
+        <v>5330.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31552</v>
+        <v>87403</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danilo Porto</t>
+          <t>Maria Luísa Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>6745.9</v>
+        <v>5618.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37982</v>
+        <v>40245</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dom Sousa</t>
+          <t>Luna Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>7294.32</v>
+        <v>2000.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72509</v>
+        <v>83378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thiago Azevedo</t>
+          <t>Murilo Castro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>7795.24</v>
+        <v>3790.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94039</v>
+        <v>31454</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ravi Lucca Dias</t>
+          <t>Dr. Apollo Mendonça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>8919</v>
+        <v>3472.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11728</v>
+        <v>32940</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Sophia Costa</t>
+          <t>Sra. Alexia Leão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>9250.48</v>
+        <v>4426.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49978</v>
+        <v>31947</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Maria Sophia Silveira</t>
+          <t>Sr. Renan da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>8535.34</v>
+        <v>3014.06</v>
       </c>
     </row>
   </sheetData>
